--- a/xlsx/a69_f42_bUPPachuca.xlsx
+++ b/xlsx/a69_f42_bUPPachuca.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\SIPOT CUARTO TRIMESTRE 2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\RESPALDO\TRANSPARENCIA UPP\2023\SIPOT\1er Trimestre 2023\F_42\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754829B5-ED76-40B3-B257-CAEED8A3155D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="750" yWindow="555" windowWidth="13815" windowHeight="7365"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -186,16 +187,16 @@
     <t>Anual</t>
   </si>
   <si>
-    <t>Secretaria Administrativa (UPP)</t>
-  </si>
-  <si>
-    <t>Este rubro no le corresponde a la Universidad, Este rubro no le corresponde a la Universidad, lo reporta la Secretaría de Contraloría</t>
+    <t>Departamento de Recursos Humanos (UPP)</t>
+  </si>
+  <si>
+    <t>Para este periodo no se cuenta con personal jubilado o pensionado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -261,17 +262,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -365,6 +377,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -400,6 +429,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -575,11 +621,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J2" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,7 +643,7 @@
     <col min="11" max="11" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="60.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
@@ -606,38 +652,38 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="3" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="5" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -728,22 +774,22 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
     </row>
     <row r="7" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -790,23 +836,32 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2018</v>
-      </c>
-      <c r="B8" s="2">
-        <v>43374</v>
-      </c>
-      <c r="C8" s="2">
-        <v>43465</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="A8" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B8" s="3">
+        <v>44927</v>
+      </c>
+      <c r="C8" s="3">
+        <v>45016</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2">
-        <v>43475</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="L8" s="3">
+        <v>45026</v>
+      </c>
+      <c r="M8" s="3">
+        <v>45026</v>
+      </c>
+      <c r="N8" s="2" t="s">
         <v>54</v>
       </c>
     </row>
@@ -821,10 +876,10 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D153" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>Hidden_13</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J8:J201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J8:J153" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>Hidden_29</formula1>
     </dataValidation>
   </dataValidations>
@@ -833,7 +888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -866,7 +921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
